--- a/茗粤海鲜酒楼.xlsx
+++ b/茗粤海鲜酒楼.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="茗粤海鲜酒楼" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="茗粤海鲜酒楼" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -832,6 +832,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1096,7 +1164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA37"/>
+  <dimension ref="A1:BA39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
@@ -7443,9 +7511,6 @@
           <t>0.00</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
           <t>0</t>
@@ -7512,6 +7577,273 @@
         </is>
       </c>
       <c r="AL37" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="AF38" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>珠海_茗粤海鲜酒楼3-4人餐[288.0]</t>
+        </is>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>珠海_茗粤海鲜酒楼代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2022-03-16</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>100名以外</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>珠海_茗粤海鲜酒楼3-4人餐[288.0]</t>
+        </is>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>珠海_茗粤海鲜酒楼代金券[90.0]</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL39" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
